--- a/Improgress/2. Artifact and Deliverable/Testing/TE_FunctionTest/TE_Testcase_Module3_ver1.3/TE_Viewbusinessresultsgraph(mobile)_ver1.3.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Testing/TE_FunctionTest/TE_Testcase_Module3_ver1.3/TE_Viewbusinessresultsgraph(mobile)_ver1.3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\TE_FunctionTest\TE_Testcase_Module3_ver1.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Testing\TE_FunctionTest\TE_Testcase_Module3_ver1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEEDA64-0CF3-4706-94C7-5749810B5557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CE9761-50F1-4179-A072-C8439A1C3727}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="2" r:id="rId1"/>
@@ -1170,126 +1170,12 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1305,15 +1191,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1325,9 +1205,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1351,6 +1228,129 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1373,6 +1373,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>91017</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62FF4F89-D5FF-4165-9B9B-AE774AB65D34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="190500"/>
+          <a:ext cx="3009900" cy="6187017"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1691,31 +1757,31 @@
   <sheetData>
     <row r="1" spans="2:5" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
     </row>
     <row r="3" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="45"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="59"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
@@ -1794,21 +1860,21 @@
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="48"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="62"/>
     </row>
     <row r="13" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="45"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="59"/>
     </row>
     <row r="15" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
@@ -1817,54 +1883,54 @@
       <c r="C15" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="39"/>
+      <c r="E15" s="68"/>
     </row>
     <row r="16" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="41"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="70"/>
     </row>
     <row r="17" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="70"/>
     </row>
     <row r="18" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="41"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="70"/>
     </row>
     <row r="19" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="41"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="70"/>
     </row>
     <row r="20" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="35"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="37"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B14:E14"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1877,13 +1943,14 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1892,7 +1959,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -1910,80 +1977,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="59" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="81" t="s">
         <v>155</v>
       </c>
-      <c r="D2" s="60"/>
+      <c r="D2" s="82"/>
       <c r="E2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="62"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="84"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65" t="s">
+      <c r="B3" s="86"/>
+      <c r="C3" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="66"/>
+      <c r="D3" s="88"/>
       <c r="E3" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="68"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="90"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73">
         <v>43575</v>
       </c>
-      <c r="D4" s="53"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="54"/>
-      <c r="H4" s="55"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="76"/>
     </row>
     <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
@@ -2015,7 +2082,7 @@
       <c r="A9" s="32">
         <v>1</v>
       </c>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="43" t="s">
         <v>66</v>
       </c>
       <c r="C9" s="34"/>
@@ -2028,14 +2095,14 @@
       <c r="F9" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="77"/>
-      <c r="H9" s="84"/>
-    </row>
-    <row r="10" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="85">
+      <c r="G9" s="39"/>
+      <c r="H9" s="44"/>
+    </row>
+    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="45">
         <v>2</v>
       </c>
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="43" t="s">
         <v>67</v>
       </c>
       <c r="C10" s="34"/>
@@ -2049,13 +2116,13 @@
         <v>14</v>
       </c>
       <c r="G10" s="34"/>
-      <c r="H10" s="86"/>
+      <c r="H10" s="46"/>
     </row>
     <row r="11" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="32">
         <v>3</v>
       </c>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="43" t="s">
         <v>68</v>
       </c>
       <c r="C11" s="34"/>
@@ -2069,13 +2136,13 @@
         <v>14</v>
       </c>
       <c r="G11" s="34"/>
-      <c r="H11" s="86"/>
+      <c r="H11" s="46"/>
     </row>
     <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="85">
+      <c r="A12" s="45">
         <v>4</v>
       </c>
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="43" t="s">
         <v>69</v>
       </c>
       <c r="C12" s="34"/>
@@ -2089,13 +2156,13 @@
         <v>14</v>
       </c>
       <c r="G12" s="34"/>
-      <c r="H12" s="86"/>
+      <c r="H12" s="46"/>
     </row>
     <row r="13" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="32">
         <v>5</v>
       </c>
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="43" t="s">
         <v>70</v>
       </c>
       <c r="C13" s="34"/>
@@ -2109,13 +2176,13 @@
         <v>14</v>
       </c>
       <c r="G13" s="34"/>
-      <c r="H13" s="86"/>
+      <c r="H13" s="46"/>
     </row>
     <row r="14" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="85">
+      <c r="A14" s="45">
         <v>6</v>
       </c>
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="43" t="s">
         <v>71</v>
       </c>
       <c r="C14" s="34" t="s">
@@ -2131,13 +2198,13 @@
         <v>14</v>
       </c>
       <c r="G14" s="34"/>
-      <c r="H14" s="86"/>
+      <c r="H14" s="46"/>
     </row>
     <row r="15" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="32">
         <v>7</v>
       </c>
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="43" t="s">
         <v>72</v>
       </c>
       <c r="C15" s="34" t="s">
@@ -2153,13 +2220,13 @@
         <v>15</v>
       </c>
       <c r="G15" s="34"/>
-      <c r="H15" s="86"/>
+      <c r="H15" s="46"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="85">
+      <c r="A16" s="45">
         <v>8</v>
       </c>
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="43" t="s">
         <v>73</v>
       </c>
       <c r="C16" s="34" t="s">
@@ -2175,7 +2242,7 @@
         <v>15</v>
       </c>
       <c r="G16" s="34"/>
-      <c r="H16" s="86"/>
+      <c r="H16" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2222,17 +2289,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
       <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
@@ -2242,374 +2309,374 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="70" t="s">
+      <c r="E3" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70" t="s">
+      <c r="F3" s="35"/>
+      <c r="G3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="70" t="s">
+      <c r="H3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="71" t="s">
+      <c r="I3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="70" t="s">
+      <c r="J3" s="35" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="72">
+      <c r="A4" s="91">
         <v>1</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="E4" s="74" t="s">
+      <c r="E4" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="75">
+      <c r="F4" s="37">
         <v>1</v>
       </c>
       <c r="G4" s="27" t="s">
         <v>112</v>
       </c>
       <c r="H4" s="23"/>
-      <c r="I4" s="76" t="s">
+      <c r="I4" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="J4" s="87" t="s">
+      <c r="J4" s="94" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="75">
+      <c r="A5" s="91"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="37">
         <v>2</v>
       </c>
       <c r="G5" s="27" t="s">
         <v>124</v>
       </c>
       <c r="H5" s="23"/>
-      <c r="I5" s="76" t="s">
+      <c r="I5" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="94"/>
     </row>
     <row r="6" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="75">
+      <c r="A6" s="91"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="37">
         <v>3</v>
       </c>
       <c r="G6" s="27" t="s">
         <v>126</v>
       </c>
       <c r="H6" s="23"/>
-      <c r="I6" s="76" t="s">
+      <c r="I6" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="94"/>
     </row>
     <row r="7" spans="1:10" s="26" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="72"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="75">
+      <c r="A7" s="91"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="37">
         <v>4</v>
       </c>
       <c r="G7" s="27" t="s">
         <v>128</v>
       </c>
       <c r="H7" s="23"/>
-      <c r="I7" s="76" t="s">
+      <c r="I7" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="J7" s="87"/>
+      <c r="J7" s="94"/>
     </row>
     <row r="8" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="72">
+      <c r="A8" s="91">
         <v>2</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72" t="s">
+      <c r="B8" s="91"/>
+      <c r="C8" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="E8" s="74" t="s">
+      <c r="E8" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="F8" s="75">
+      <c r="F8" s="37">
         <v>1</v>
       </c>
       <c r="G8" s="27" t="s">
         <v>112</v>
       </c>
       <c r="H8" s="23"/>
-      <c r="I8" s="76" t="s">
+      <c r="I8" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="J8" s="87" t="s">
+      <c r="J8" s="94" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="25" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="72"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="75">
+      <c r="A9" s="91"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="37">
         <v>2</v>
       </c>
       <c r="G9" s="27" t="s">
         <v>124</v>
       </c>
       <c r="H9" s="23"/>
-      <c r="I9" s="76" t="s">
+      <c r="I9" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="J9" s="87"/>
+      <c r="J9" s="94"/>
     </row>
     <row r="10" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="72"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="75">
+      <c r="A10" s="91"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="37">
         <v>3</v>
       </c>
       <c r="G10" s="27" t="s">
         <v>126</v>
       </c>
       <c r="H10" s="23"/>
-      <c r="I10" s="76" t="s">
+      <c r="I10" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="J10" s="87"/>
+      <c r="J10" s="94"/>
     </row>
     <row r="11" spans="1:10" s="26" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="72"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="75">
+      <c r="A11" s="91"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="37">
         <v>3</v>
       </c>
       <c r="G11" s="27" t="s">
         <v>129</v>
       </c>
       <c r="H11" s="23"/>
-      <c r="I11" s="76" t="s">
+      <c r="I11" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="94"/>
     </row>
     <row r="12" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="72">
+      <c r="A12" s="91">
         <v>3</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72" t="s">
+      <c r="B12" s="91"/>
+      <c r="C12" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="73" t="s">
+      <c r="D12" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="E12" s="74" t="s">
+      <c r="E12" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="F12" s="75">
+      <c r="F12" s="37">
         <v>1</v>
       </c>
       <c r="G12" s="27" t="s">
         <v>112</v>
       </c>
       <c r="H12" s="23"/>
-      <c r="I12" s="76" t="s">
+      <c r="I12" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="J12" s="87" t="s">
+      <c r="J12" s="94" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="25" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="72"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="75">
+      <c r="A13" s="91"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="37">
         <v>2</v>
       </c>
       <c r="G13" s="27" t="s">
         <v>124</v>
       </c>
       <c r="H13" s="23"/>
-      <c r="I13" s="76" t="s">
+      <c r="I13" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="94"/>
     </row>
     <row r="14" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="72"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="75">
+      <c r="A14" s="91"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="37">
         <v>3</v>
       </c>
       <c r="G14" s="27" t="s">
         <v>126</v>
       </c>
       <c r="H14" s="23"/>
-      <c r="I14" s="76" t="s">
+      <c r="I14" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="94"/>
     </row>
     <row r="15" spans="1:10" s="26" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="72"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="75">
+      <c r="A15" s="91"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="37">
         <v>3</v>
       </c>
       <c r="G15" s="27" t="s">
         <v>131</v>
       </c>
       <c r="H15" s="23"/>
-      <c r="I15" s="76" t="s">
+      <c r="I15" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="94"/>
     </row>
     <row r="16" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="72">
+      <c r="A16" s="91">
         <v>4</v>
       </c>
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="73" t="s">
+      <c r="D16" s="92" t="s">
         <v>146</v>
       </c>
-      <c r="E16" s="74" t="s">
+      <c r="E16" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="F16" s="75">
+      <c r="F16" s="37">
         <v>1</v>
       </c>
       <c r="G16" s="27" t="s">
         <v>112</v>
       </c>
       <c r="H16" s="23"/>
-      <c r="I16" s="76" t="s">
+      <c r="I16" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="J16" s="87" t="s">
+      <c r="J16" s="94" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="25" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="72"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="75">
+      <c r="A17" s="91"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="37">
         <v>2</v>
       </c>
       <c r="G17" s="27" t="s">
         <v>124</v>
       </c>
       <c r="H17" s="23"/>
-      <c r="I17" s="76" t="s">
+      <c r="I17" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="J17" s="87"/>
+      <c r="J17" s="94"/>
     </row>
     <row r="18" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="72"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="75">
+      <c r="A18" s="91"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="37">
         <v>3</v>
       </c>
       <c r="G18" s="27" t="s">
         <v>126</v>
       </c>
       <c r="H18" s="23"/>
-      <c r="I18" s="76" t="s">
+      <c r="I18" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="J18" s="87"/>
+      <c r="J18" s="94"/>
     </row>
     <row r="19" spans="1:10" s="26" customFormat="1" ht="57" x14ac:dyDescent="0.25">
-      <c r="A19" s="72"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="75">
+      <c r="A19" s="91"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="37">
         <v>4</v>
       </c>
       <c r="G19" s="27" t="s">
         <v>128</v>
       </c>
       <c r="H19" s="23"/>
-      <c r="I19" s="76" t="s">
+      <c r="I19" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="J19" s="87"/>
+      <c r="J19" s="94"/>
     </row>
     <row r="20" spans="1:10" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="72"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="75">
+      <c r="A20" s="91"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="37">
         <v>5</v>
       </c>
       <c r="G20" s="27" t="s">
@@ -2618,16 +2685,16 @@
       <c r="H20" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="I20" s="76"/>
-      <c r="J20" s="87"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="94"/>
     </row>
     <row r="21" spans="1:10" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="72"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="75">
+      <c r="A21" s="91"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="37">
         <v>6</v>
       </c>
       <c r="G21" s="27" t="s">
@@ -2636,16 +2703,16 @@
       <c r="H21" s="23">
         <v>2016</v>
       </c>
-      <c r="I21" s="76"/>
-      <c r="J21" s="87"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="94"/>
     </row>
     <row r="22" spans="1:10" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="72"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="75">
+      <c r="A22" s="91"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="37">
         <v>7</v>
       </c>
       <c r="G22" s="27" t="s">
@@ -2654,152 +2721,152 @@
       <c r="H22" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="I22" s="76"/>
-      <c r="J22" s="87"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="94"/>
     </row>
     <row r="23" spans="1:10" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="72"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="75">
+      <c r="A23" s="91"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="37">
         <v>8</v>
       </c>
-      <c r="G23" s="88" t="s">
+      <c r="G23" s="47" t="s">
         <v>140</v>
       </c>
       <c r="H23" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="I23" s="76"/>
-      <c r="J23" s="87"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="94"/>
     </row>
     <row r="24" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="72"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="75">
+      <c r="A24" s="91"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="37">
         <v>8</v>
       </c>
-      <c r="G24" s="88" t="s">
+      <c r="G24" s="47" t="s">
         <v>147</v>
       </c>
       <c r="H24" s="23"/>
-      <c r="I24" s="76" t="s">
+      <c r="I24" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="J24" s="87"/>
+      <c r="J24" s="94"/>
     </row>
     <row r="25" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="72">
+      <c r="A25" s="91">
         <v>5</v>
       </c>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72" t="s">
+      <c r="B25" s="91"/>
+      <c r="C25" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="73" t="s">
+      <c r="D25" s="92" t="s">
         <v>146</v>
       </c>
-      <c r="E25" s="74" t="s">
+      <c r="E25" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="F25" s="75">
+      <c r="F25" s="37">
         <v>1</v>
       </c>
-      <c r="G25" s="88" t="s">
+      <c r="G25" s="47" t="s">
         <v>93</v>
       </c>
       <c r="H25" s="23"/>
-      <c r="I25" s="89" t="s">
+      <c r="I25" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="J25" s="87" t="s">
+      <c r="J25" s="94" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="25" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="72"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="75">
+      <c r="A26" s="91"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="37">
         <v>2</v>
       </c>
-      <c r="G26" s="88" t="s">
+      <c r="G26" s="47" t="s">
         <v>125</v>
       </c>
       <c r="H26" s="23"/>
-      <c r="I26" s="76" t="s">
+      <c r="I26" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="J26" s="87"/>
+      <c r="J26" s="94"/>
     </row>
     <row r="27" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="72"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="75">
+      <c r="A27" s="91"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="37">
         <v>3</v>
       </c>
-      <c r="G27" s="88" t="s">
+      <c r="G27" s="47" t="s">
         <v>127</v>
       </c>
       <c r="H27" s="23"/>
-      <c r="I27" s="89" t="s">
+      <c r="I27" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="J27" s="87"/>
+      <c r="J27" s="94"/>
     </row>
     <row r="28" spans="1:10" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="72"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="75">
+      <c r="A28" s="91"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="37">
         <v>4</v>
       </c>
-      <c r="G28" s="88" t="s">
+      <c r="G28" s="47" t="s">
         <v>130</v>
       </c>
       <c r="H28" s="23"/>
-      <c r="I28" s="90" t="s">
+      <c r="I28" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="J28" s="87"/>
+      <c r="J28" s="94"/>
     </row>
     <row r="29" spans="1:10" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="72"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="75">
+      <c r="A29" s="91"/>
+      <c r="B29" s="91"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="37">
         <v>5</v>
       </c>
-      <c r="G29" s="88" t="s">
+      <c r="G29" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="H29" s="91" t="s">
+      <c r="H29" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="I29" s="76"/>
-      <c r="J29" s="87"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="94"/>
     </row>
     <row r="30" spans="1:10" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="72"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="75">
+      <c r="A30" s="91"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="37">
         <v>6</v>
       </c>
       <c r="G30" s="27" t="s">
@@ -2808,326 +2875,326 @@
       <c r="H30" s="23">
         <v>2019</v>
       </c>
-      <c r="I30" s="76"/>
-      <c r="J30" s="87"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="94"/>
     </row>
     <row r="31" spans="1:10" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="72"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="75">
+      <c r="A31" s="91"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="37">
         <v>7</v>
       </c>
       <c r="G31" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="H31" s="91" t="s">
+      <c r="H31" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="I31" s="76"/>
-      <c r="J31" s="87"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="94"/>
     </row>
     <row r="32" spans="1:10" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="72"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="75">
+      <c r="A32" s="91"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="37">
         <v>8</v>
       </c>
-      <c r="G32" s="88" t="s">
+      <c r="G32" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="H32" s="91" t="s">
+      <c r="H32" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="I32" s="76"/>
-      <c r="J32" s="87"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="94"/>
     </row>
     <row r="33" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="72"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="75">
+      <c r="A33" s="91"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="37">
         <v>8</v>
       </c>
-      <c r="G33" s="88" t="s">
+      <c r="G33" s="47" t="s">
         <v>147</v>
       </c>
       <c r="H33" s="23"/>
-      <c r="I33" s="76" t="s">
+      <c r="I33" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="J33" s="87"/>
+      <c r="J33" s="94"/>
     </row>
     <row r="34" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="72">
+      <c r="A34" s="91">
         <v>6</v>
       </c>
-      <c r="B34" s="72"/>
-      <c r="C34" s="72" t="s">
+      <c r="B34" s="91"/>
+      <c r="C34" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="73" t="s">
+      <c r="D34" s="92" t="s">
         <v>141</v>
       </c>
-      <c r="E34" s="74" t="s">
+      <c r="E34" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="F34" s="75">
+      <c r="F34" s="37">
         <v>1</v>
       </c>
       <c r="G34" s="27" t="s">
         <v>112</v>
       </c>
       <c r="H34" s="23"/>
-      <c r="I34" s="76" t="s">
+      <c r="I34" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="J34" s="87" t="s">
+      <c r="J34" s="94" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="25" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="72"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="75">
+      <c r="A35" s="91"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="37">
         <v>2</v>
       </c>
       <c r="G35" s="27" t="s">
         <v>124</v>
       </c>
       <c r="H35" s="23"/>
-      <c r="I35" s="76" t="s">
+      <c r="I35" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="94"/>
     </row>
     <row r="36" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="72"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="75">
+      <c r="A36" s="91"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="37">
         <v>3</v>
       </c>
       <c r="G36" s="27" t="s">
         <v>126</v>
       </c>
       <c r="H36" s="23"/>
-      <c r="I36" s="88" t="s">
+      <c r="I36" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="J36" s="87"/>
+      <c r="J36" s="94"/>
     </row>
     <row r="37" spans="1:10" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="72"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="75">
+      <c r="A37" s="91"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="37">
         <v>4</v>
       </c>
       <c r="G37" s="27" t="s">
         <v>131</v>
       </c>
       <c r="H37" s="23"/>
-      <c r="I37" s="92" t="s">
+      <c r="I37" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="J37" s="87"/>
+      <c r="J37" s="94"/>
     </row>
     <row r="38" spans="1:10" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="72"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="75">
+      <c r="A38" s="91"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="37">
         <v>5</v>
       </c>
-      <c r="G38" s="88" t="s">
+      <c r="G38" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="H38" s="91" t="s">
+      <c r="H38" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="I38" s="76"/>
-      <c r="J38" s="87"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="94"/>
     </row>
     <row r="39" spans="1:10" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="72"/>
-      <c r="B39" s="72"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="75">
+      <c r="A39" s="91"/>
+      <c r="B39" s="91"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="37">
         <v>6</v>
       </c>
-      <c r="G39" s="88" t="s">
+      <c r="G39" s="47" t="s">
         <v>134</v>
       </c>
       <c r="H39" s="23">
         <v>2019</v>
       </c>
-      <c r="I39" s="76"/>
-      <c r="J39" s="87"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="94"/>
     </row>
     <row r="40" spans="1:10" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="72"/>
-      <c r="B40" s="72"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="75">
+      <c r="A40" s="91"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="37">
         <v>7</v>
       </c>
-      <c r="G40" s="88" t="s">
+      <c r="G40" s="47" t="s">
         <v>136</v>
       </c>
       <c r="H40" s="23">
         <v>2</v>
       </c>
-      <c r="I40" s="76"/>
-      <c r="J40" s="87"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="94"/>
     </row>
     <row r="41" spans="1:10" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="72"/>
-      <c r="B41" s="72"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="75">
+      <c r="A41" s="91"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="37">
         <v>7</v>
       </c>
-      <c r="G41" s="88" t="s">
+      <c r="G41" s="47" t="s">
         <v>142</v>
       </c>
       <c r="H41" s="23">
         <v>2</v>
       </c>
-      <c r="I41" s="76"/>
-      <c r="J41" s="87"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="94"/>
     </row>
     <row r="42" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="72"/>
-      <c r="B42" s="72"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="75">
+      <c r="A42" s="91"/>
+      <c r="B42" s="91"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="37">
         <v>8</v>
       </c>
-      <c r="G42" s="88" t="s">
+      <c r="G42" s="47" t="s">
         <v>147</v>
       </c>
       <c r="H42" s="23"/>
-      <c r="I42" s="76" t="s">
+      <c r="I42" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="J42" s="87"/>
+      <c r="J42" s="94"/>
     </row>
     <row r="43" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="72">
+      <c r="A43" s="91">
         <v>7</v>
       </c>
-      <c r="B43" s="72" t="s">
+      <c r="B43" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="72" t="s">
+      <c r="C43" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="73" t="s">
+      <c r="D43" s="92" t="s">
         <v>143</v>
       </c>
-      <c r="E43" s="74" t="s">
+      <c r="E43" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="F43" s="75">
+      <c r="F43" s="37">
         <v>1</v>
       </c>
       <c r="G43" s="27" t="s">
         <v>112</v>
       </c>
       <c r="H43" s="23"/>
-      <c r="I43" s="76" t="s">
+      <c r="I43" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="J43" s="87" t="s">
+      <c r="J43" s="94" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="25" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="72"/>
-      <c r="B44" s="72"/>
-      <c r="C44" s="72"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="75">
+      <c r="A44" s="91"/>
+      <c r="B44" s="91"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="92"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="37">
         <v>2</v>
       </c>
       <c r="G44" s="27" t="s">
         <v>124</v>
       </c>
       <c r="H44" s="23"/>
-      <c r="I44" s="76" t="s">
+      <c r="I44" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="J44" s="87"/>
+      <c r="J44" s="94"/>
     </row>
     <row r="45" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="72"/>
-      <c r="B45" s="72"/>
-      <c r="C45" s="72"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="75">
+      <c r="A45" s="91"/>
+      <c r="B45" s="91"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="93"/>
+      <c r="F45" s="37">
         <v>3</v>
       </c>
       <c r="G45" s="27" t="s">
         <v>126</v>
       </c>
       <c r="H45" s="23"/>
-      <c r="I45" s="76" t="s">
+      <c r="I45" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="J45" s="87"/>
+      <c r="J45" s="94"/>
     </row>
     <row r="46" spans="1:10" s="26" customFormat="1" ht="57" x14ac:dyDescent="0.25">
-      <c r="A46" s="72"/>
-      <c r="B46" s="72"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="75">
+      <c r="A46" s="91"/>
+      <c r="B46" s="91"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="92"/>
+      <c r="E46" s="93"/>
+      <c r="F46" s="37">
         <v>4</v>
       </c>
       <c r="G46" s="27" t="s">
         <v>156</v>
       </c>
       <c r="H46" s="23"/>
-      <c r="I46" s="76" t="s">
+      <c r="I46" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="J46" s="87"/>
+      <c r="J46" s="94"/>
     </row>
     <row r="47" spans="1:10" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A47" s="72"/>
-      <c r="B47" s="72"/>
-      <c r="C47" s="72"/>
-      <c r="D47" s="73"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="75">
+      <c r="A47" s="91"/>
+      <c r="B47" s="91"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="92"/>
+      <c r="E47" s="93"/>
+      <c r="F47" s="37">
         <v>5</v>
       </c>
       <c r="G47" s="27" t="s">
@@ -3136,1591 +3203,1586 @@
       <c r="H47" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="I47" s="76"/>
-      <c r="J47" s="87"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="94"/>
     </row>
     <row r="48" spans="1:10" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="72"/>
-      <c r="B48" s="72"/>
-      <c r="C48" s="72"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="74"/>
-      <c r="F48" s="75">
+      <c r="A48" s="91"/>
+      <c r="B48" s="91"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="92"/>
+      <c r="E48" s="93"/>
+      <c r="F48" s="37">
         <v>6</v>
       </c>
-      <c r="G48" s="88" t="s">
+      <c r="G48" s="47" t="s">
         <v>134</v>
       </c>
       <c r="H48" s="23">
         <v>2016</v>
       </c>
-      <c r="I48" s="76"/>
-      <c r="J48" s="87"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="94"/>
     </row>
     <row r="49" spans="1:10" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="72"/>
-      <c r="B49" s="72"/>
-      <c r="C49" s="72"/>
-      <c r="D49" s="73"/>
-      <c r="E49" s="74"/>
-      <c r="F49" s="75">
+      <c r="A49" s="91"/>
+      <c r="B49" s="91"/>
+      <c r="C49" s="91"/>
+      <c r="D49" s="92"/>
+      <c r="E49" s="93"/>
+      <c r="F49" s="37">
         <v>7</v>
       </c>
-      <c r="G49" s="88" t="s">
+      <c r="G49" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="H49" s="91" t="s">
+      <c r="H49" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="I49" s="76"/>
-      <c r="J49" s="87"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="94"/>
     </row>
     <row r="50" spans="1:10" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="72"/>
-      <c r="B50" s="72"/>
-      <c r="C50" s="72"/>
-      <c r="D50" s="73"/>
-      <c r="E50" s="74"/>
-      <c r="F50" s="75">
+      <c r="A50" s="91"/>
+      <c r="B50" s="91"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="92"/>
+      <c r="E50" s="93"/>
+      <c r="F50" s="37">
         <v>8</v>
       </c>
-      <c r="G50" s="88" t="s">
+      <c r="G50" s="47" t="s">
         <v>142</v>
       </c>
       <c r="H50" s="23"/>
-      <c r="I50" s="76" t="s">
+      <c r="I50" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="J50" s="87"/>
+      <c r="J50" s="94"/>
     </row>
     <row r="51" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="72"/>
-      <c r="B51" s="72"/>
-      <c r="C51" s="72"/>
-      <c r="D51" s="73"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="75">
+      <c r="A51" s="91"/>
+      <c r="B51" s="91"/>
+      <c r="C51" s="91"/>
+      <c r="D51" s="92"/>
+      <c r="E51" s="93"/>
+      <c r="F51" s="37">
         <v>8</v>
       </c>
-      <c r="G51" s="88" t="s">
+      <c r="G51" s="47" t="s">
         <v>147</v>
       </c>
       <c r="H51" s="23"/>
-      <c r="I51" s="76" t="s">
+      <c r="I51" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="J51" s="87"/>
+      <c r="J51" s="94"/>
     </row>
     <row r="52" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="72">
+      <c r="A52" s="91">
         <v>8</v>
       </c>
-      <c r="B52" s="72"/>
-      <c r="C52" s="72" t="s">
+      <c r="B52" s="91"/>
+      <c r="C52" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="D52" s="73" t="s">
+      <c r="D52" s="92" t="s">
         <v>146</v>
       </c>
-      <c r="E52" s="74" t="s">
+      <c r="E52" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="F52" s="75">
+      <c r="F52" s="37">
         <v>1</v>
       </c>
       <c r="G52" s="27" t="s">
         <v>112</v>
       </c>
       <c r="H52" s="23"/>
-      <c r="I52" s="76" t="s">
+      <c r="I52" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="J52" s="87" t="s">
+      <c r="J52" s="94" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="25" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A53" s="72"/>
-      <c r="B53" s="72"/>
-      <c r="C53" s="72"/>
-      <c r="D53" s="73"/>
-      <c r="E53" s="74"/>
-      <c r="F53" s="75">
+      <c r="A53" s="91"/>
+      <c r="B53" s="91"/>
+      <c r="C53" s="91"/>
+      <c r="D53" s="92"/>
+      <c r="E53" s="93"/>
+      <c r="F53" s="37">
         <v>2</v>
       </c>
       <c r="G53" s="27" t="s">
         <v>124</v>
       </c>
       <c r="H53" s="23"/>
-      <c r="I53" s="76" t="s">
+      <c r="I53" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="J53" s="87"/>
+      <c r="J53" s="94"/>
     </row>
     <row r="54" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="72"/>
-      <c r="B54" s="72"/>
-      <c r="C54" s="72"/>
-      <c r="D54" s="73"/>
-      <c r="E54" s="74"/>
-      <c r="F54" s="75">
+      <c r="A54" s="91"/>
+      <c r="B54" s="91"/>
+      <c r="C54" s="91"/>
+      <c r="D54" s="92"/>
+      <c r="E54" s="93"/>
+      <c r="F54" s="37">
         <v>3</v>
       </c>
       <c r="G54" s="27" t="s">
         <v>126</v>
       </c>
       <c r="H54" s="23"/>
-      <c r="I54" s="76" t="s">
+      <c r="I54" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="J54" s="87"/>
+      <c r="J54" s="94"/>
     </row>
     <row r="55" spans="1:10" s="26" customFormat="1" ht="57" x14ac:dyDescent="0.25">
-      <c r="A55" s="72"/>
-      <c r="B55" s="72"/>
-      <c r="C55" s="72"/>
-      <c r="D55" s="73"/>
-      <c r="E55" s="74"/>
-      <c r="F55" s="75">
+      <c r="A55" s="91"/>
+      <c r="B55" s="91"/>
+      <c r="C55" s="91"/>
+      <c r="D55" s="92"/>
+      <c r="E55" s="93"/>
+      <c r="F55" s="37">
         <v>4</v>
       </c>
       <c r="G55" s="27" t="s">
         <v>129</v>
       </c>
       <c r="H55" s="23"/>
-      <c r="I55" s="76" t="s">
+      <c r="I55" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="J55" s="87"/>
+      <c r="J55" s="94"/>
     </row>
     <row r="56" spans="1:10" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="72"/>
-      <c r="B56" s="72"/>
-      <c r="C56" s="72"/>
-      <c r="D56" s="73"/>
-      <c r="E56" s="74"/>
-      <c r="F56" s="75">
+      <c r="A56" s="91"/>
+      <c r="B56" s="91"/>
+      <c r="C56" s="91"/>
+      <c r="D56" s="92"/>
+      <c r="E56" s="93"/>
+      <c r="F56" s="37">
         <v>5</v>
       </c>
-      <c r="G56" s="88" t="s">
+      <c r="G56" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="H56" s="91" t="s">
+      <c r="H56" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="I56" s="76"/>
-      <c r="J56" s="87"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="94"/>
     </row>
     <row r="57" spans="1:10" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="72"/>
-      <c r="B57" s="72"/>
-      <c r="C57" s="72"/>
-      <c r="D57" s="73"/>
-      <c r="E57" s="74"/>
-      <c r="F57" s="75">
+      <c r="A57" s="91"/>
+      <c r="B57" s="91"/>
+      <c r="C57" s="91"/>
+      <c r="D57" s="92"/>
+      <c r="E57" s="93"/>
+      <c r="F57" s="37">
         <v>6</v>
       </c>
-      <c r="G57" s="88" t="s">
+      <c r="G57" s="47" t="s">
         <v>134</v>
       </c>
       <c r="H57" s="23">
         <v>2019</v>
       </c>
-      <c r="I57" s="76"/>
-      <c r="J57" s="87"/>
+      <c r="I57" s="38"/>
+      <c r="J57" s="94"/>
     </row>
     <row r="58" spans="1:10" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="72"/>
-      <c r="B58" s="72"/>
-      <c r="C58" s="72"/>
-      <c r="D58" s="73"/>
-      <c r="E58" s="74"/>
-      <c r="F58" s="75">
+      <c r="A58" s="91"/>
+      <c r="B58" s="91"/>
+      <c r="C58" s="91"/>
+      <c r="D58" s="92"/>
+      <c r="E58" s="93"/>
+      <c r="F58" s="37">
         <v>7</v>
       </c>
-      <c r="G58" s="88" t="s">
+      <c r="G58" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="H58" s="91" t="s">
+      <c r="H58" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="I58" s="76"/>
-      <c r="J58" s="87"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="94"/>
     </row>
     <row r="59" spans="1:10" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="72"/>
-      <c r="B59" s="72"/>
-      <c r="C59" s="72"/>
-      <c r="D59" s="73"/>
-      <c r="E59" s="74"/>
-      <c r="F59" s="75">
+      <c r="A59" s="91"/>
+      <c r="B59" s="91"/>
+      <c r="C59" s="91"/>
+      <c r="D59" s="92"/>
+      <c r="E59" s="93"/>
+      <c r="F59" s="37">
         <v>8</v>
       </c>
-      <c r="G59" s="88" t="s">
+      <c r="G59" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="H59" s="91" t="s">
+      <c r="H59" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="I59" s="76"/>
-      <c r="J59" s="87"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="94"/>
     </row>
     <row r="60" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="72"/>
-      <c r="B60" s="72"/>
-      <c r="C60" s="72"/>
-      <c r="D60" s="73"/>
-      <c r="E60" s="74"/>
-      <c r="F60" s="75">
+      <c r="A60" s="91"/>
+      <c r="B60" s="91"/>
+      <c r="C60" s="91"/>
+      <c r="D60" s="92"/>
+      <c r="E60" s="93"/>
+      <c r="F60" s="37">
         <v>8</v>
       </c>
-      <c r="G60" s="88" t="s">
+      <c r="G60" s="47" t="s">
         <v>147</v>
       </c>
       <c r="H60" s="23"/>
-      <c r="I60" s="76" t="s">
+      <c r="I60" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="J60" s="87"/>
+      <c r="J60" s="94"/>
     </row>
     <row r="61" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="72">
+      <c r="A61" s="91">
         <v>9</v>
       </c>
-      <c r="B61" s="72" t="s">
+      <c r="B61" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="72" t="s">
+      <c r="C61" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="D61" s="73" t="s">
+      <c r="D61" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="E61" s="74" t="s">
+      <c r="E61" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="F61" s="75">
+      <c r="F61" s="37">
         <v>1</v>
       </c>
       <c r="G61" s="27" t="s">
         <v>112</v>
       </c>
       <c r="H61" s="23"/>
-      <c r="I61" s="76" t="s">
+      <c r="I61" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="J61" s="87" t="s">
+      <c r="J61" s="94" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:10" s="25" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A62" s="72"/>
-      <c r="B62" s="72"/>
-      <c r="C62" s="72"/>
-      <c r="D62" s="73"/>
-      <c r="E62" s="74"/>
-      <c r="F62" s="75">
+      <c r="A62" s="91"/>
+      <c r="B62" s="91"/>
+      <c r="C62" s="91"/>
+      <c r="D62" s="92"/>
+      <c r="E62" s="93"/>
+      <c r="F62" s="37">
         <v>2</v>
       </c>
       <c r="G62" s="27" t="s">
         <v>124</v>
       </c>
       <c r="H62" s="23"/>
-      <c r="I62" s="76" t="s">
+      <c r="I62" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="J62" s="87"/>
+      <c r="J62" s="94"/>
     </row>
     <row r="63" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="72"/>
-      <c r="B63" s="72"/>
-      <c r="C63" s="72"/>
-      <c r="D63" s="73"/>
-      <c r="E63" s="74"/>
-      <c r="F63" s="75">
+      <c r="A63" s="91"/>
+      <c r="B63" s="91"/>
+      <c r="C63" s="91"/>
+      <c r="D63" s="92"/>
+      <c r="E63" s="93"/>
+      <c r="F63" s="37">
         <v>3</v>
       </c>
       <c r="G63" s="27" t="s">
         <v>126</v>
       </c>
       <c r="H63" s="23"/>
-      <c r="I63" s="76" t="s">
+      <c r="I63" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="J63" s="87"/>
+      <c r="J63" s="94"/>
     </row>
     <row r="64" spans="1:10" s="26" customFormat="1" ht="57" x14ac:dyDescent="0.25">
-      <c r="A64" s="72"/>
-      <c r="B64" s="72"/>
-      <c r="C64" s="72"/>
-      <c r="D64" s="73"/>
-      <c r="E64" s="74"/>
-      <c r="F64" s="75">
+      <c r="A64" s="91"/>
+      <c r="B64" s="91"/>
+      <c r="C64" s="91"/>
+      <c r="D64" s="92"/>
+      <c r="E64" s="93"/>
+      <c r="F64" s="37">
         <v>4</v>
       </c>
       <c r="G64" s="27" t="s">
         <v>156</v>
       </c>
       <c r="H64" s="23"/>
-      <c r="I64" s="76" t="s">
+      <c r="I64" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="J64" s="87"/>
+      <c r="J64" s="94"/>
     </row>
     <row r="65" spans="1:10" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="72"/>
-      <c r="B65" s="72"/>
-      <c r="C65" s="72"/>
-      <c r="D65" s="73"/>
-      <c r="E65" s="74"/>
-      <c r="F65" s="75">
+      <c r="A65" s="91"/>
+      <c r="B65" s="91"/>
+      <c r="C65" s="91"/>
+      <c r="D65" s="92"/>
+      <c r="E65" s="93"/>
+      <c r="F65" s="37">
         <v>5</v>
       </c>
-      <c r="G65" s="88" t="s">
+      <c r="G65" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="H65" s="93" t="s">
+      <c r="H65" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="I65" s="76"/>
-      <c r="J65" s="87"/>
+      <c r="I65" s="38"/>
+      <c r="J65" s="94"/>
     </row>
     <row r="66" spans="1:10" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="72"/>
-      <c r="B66" s="72"/>
-      <c r="C66" s="72"/>
-      <c r="D66" s="73"/>
-      <c r="E66" s="74"/>
-      <c r="F66" s="75">
+      <c r="A66" s="91"/>
+      <c r="B66" s="91"/>
+      <c r="C66" s="91"/>
+      <c r="D66" s="92"/>
+      <c r="E66" s="93"/>
+      <c r="F66" s="37">
         <v>6</v>
       </c>
-      <c r="G66" s="88" t="s">
+      <c r="G66" s="47" t="s">
         <v>134</v>
       </c>
       <c r="H66" s="23">
         <v>2016</v>
       </c>
-      <c r="I66" s="76"/>
-      <c r="J66" s="87"/>
+      <c r="I66" s="38"/>
+      <c r="J66" s="94"/>
     </row>
     <row r="67" spans="1:10" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="72"/>
-      <c r="B67" s="72"/>
-      <c r="C67" s="72"/>
-      <c r="D67" s="73"/>
-      <c r="E67" s="74"/>
-      <c r="F67" s="75">
+      <c r="A67" s="91"/>
+      <c r="B67" s="91"/>
+      <c r="C67" s="91"/>
+      <c r="D67" s="92"/>
+      <c r="E67" s="93"/>
+      <c r="F67" s="37">
         <v>7</v>
       </c>
-      <c r="G67" s="88" t="s">
+      <c r="G67" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="H67" s="88" t="s">
+      <c r="H67" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="I67" s="76"/>
-      <c r="J67" s="87"/>
+      <c r="I67" s="38"/>
+      <c r="J67" s="94"/>
     </row>
     <row r="68" spans="1:10" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A68" s="72"/>
-      <c r="B68" s="72"/>
-      <c r="C68" s="72"/>
-      <c r="D68" s="73"/>
-      <c r="E68" s="74"/>
-      <c r="F68" s="75">
+      <c r="A68" s="91"/>
+      <c r="B68" s="91"/>
+      <c r="C68" s="91"/>
+      <c r="D68" s="92"/>
+      <c r="E68" s="93"/>
+      <c r="F68" s="37">
         <v>8</v>
       </c>
-      <c r="G68" s="88" t="s">
+      <c r="G68" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="H68" s="88" t="s">
+      <c r="H68" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="I68" s="76"/>
-      <c r="J68" s="87"/>
+      <c r="I68" s="38"/>
+      <c r="J68" s="94"/>
     </row>
     <row r="69" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="72"/>
-      <c r="B69" s="72"/>
-      <c r="C69" s="72"/>
-      <c r="D69" s="73"/>
-      <c r="E69" s="74"/>
-      <c r="F69" s="75">
+      <c r="A69" s="91"/>
+      <c r="B69" s="91"/>
+      <c r="C69" s="91"/>
+      <c r="D69" s="92"/>
+      <c r="E69" s="93"/>
+      <c r="F69" s="37">
         <v>8</v>
       </c>
-      <c r="G69" s="88" t="s">
+      <c r="G69" s="47" t="s">
         <v>147</v>
       </c>
       <c r="H69" s="23"/>
-      <c r="I69" s="76" t="s">
+      <c r="I69" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="J69" s="87"/>
+      <c r="J69" s="94"/>
     </row>
     <row r="70" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="72">
+      <c r="A70" s="91">
         <v>10</v>
       </c>
-      <c r="B70" s="72"/>
-      <c r="C70" s="72" t="s">
+      <c r="B70" s="91"/>
+      <c r="C70" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="D70" s="73" t="s">
+      <c r="D70" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="E70" s="74" t="s">
+      <c r="E70" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="F70" s="75">
+      <c r="F70" s="37">
         <v>1</v>
       </c>
       <c r="G70" s="27" t="s">
         <v>112</v>
       </c>
       <c r="H70" s="23"/>
-      <c r="I70" s="76" t="s">
+      <c r="I70" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="J70" s="87" t="s">
+      <c r="J70" s="94" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:10" s="25" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A71" s="72"/>
-      <c r="B71" s="72"/>
-      <c r="C71" s="72"/>
-      <c r="D71" s="73"/>
-      <c r="E71" s="74"/>
-      <c r="F71" s="75">
+      <c r="A71" s="91"/>
+      <c r="B71" s="91"/>
+      <c r="C71" s="91"/>
+      <c r="D71" s="92"/>
+      <c r="E71" s="93"/>
+      <c r="F71" s="37">
         <v>2</v>
       </c>
       <c r="G71" s="27" t="s">
         <v>124</v>
       </c>
       <c r="H71" s="23"/>
-      <c r="I71" s="76" t="s">
+      <c r="I71" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="J71" s="87"/>
+      <c r="J71" s="94"/>
     </row>
     <row r="72" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="72"/>
-      <c r="B72" s="72"/>
-      <c r="C72" s="72"/>
-      <c r="D72" s="73"/>
-      <c r="E72" s="74"/>
-      <c r="F72" s="75">
+      <c r="A72" s="91"/>
+      <c r="B72" s="91"/>
+      <c r="C72" s="91"/>
+      <c r="D72" s="92"/>
+      <c r="E72" s="93"/>
+      <c r="F72" s="37">
         <v>3</v>
       </c>
       <c r="G72" s="27" t="s">
         <v>126</v>
       </c>
       <c r="H72" s="23"/>
-      <c r="I72" s="76" t="s">
+      <c r="I72" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="J72" s="87"/>
+      <c r="J72" s="94"/>
     </row>
     <row r="73" spans="1:10" s="26" customFormat="1" ht="57" x14ac:dyDescent="0.25">
-      <c r="A73" s="72"/>
-      <c r="B73" s="72"/>
-      <c r="C73" s="72"/>
-      <c r="D73" s="73"/>
-      <c r="E73" s="74"/>
-      <c r="F73" s="75">
+      <c r="A73" s="91"/>
+      <c r="B73" s="91"/>
+      <c r="C73" s="91"/>
+      <c r="D73" s="92"/>
+      <c r="E73" s="93"/>
+      <c r="F73" s="37">
         <v>4</v>
       </c>
       <c r="G73" s="27" t="s">
         <v>129</v>
       </c>
       <c r="H73" s="23"/>
-      <c r="I73" s="76" t="s">
+      <c r="I73" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="J73" s="87"/>
+      <c r="J73" s="94"/>
     </row>
     <row r="74" spans="1:10" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="72"/>
-      <c r="B74" s="72"/>
-      <c r="C74" s="72"/>
-      <c r="D74" s="73"/>
-      <c r="E74" s="74"/>
-      <c r="F74" s="75">
+      <c r="A74" s="91"/>
+      <c r="B74" s="91"/>
+      <c r="C74" s="91"/>
+      <c r="D74" s="92"/>
+      <c r="E74" s="93"/>
+      <c r="F74" s="37">
         <v>5</v>
       </c>
-      <c r="G74" s="88" t="s">
+      <c r="G74" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="H74" s="93" t="s">
+      <c r="H74" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="I74" s="76"/>
-      <c r="J74" s="87"/>
+      <c r="I74" s="38"/>
+      <c r="J74" s="94"/>
     </row>
     <row r="75" spans="1:10" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A75" s="72"/>
-      <c r="B75" s="72"/>
-      <c r="C75" s="72"/>
-      <c r="D75" s="73"/>
-      <c r="E75" s="74"/>
-      <c r="F75" s="75">
+      <c r="A75" s="91"/>
+      <c r="B75" s="91"/>
+      <c r="C75" s="91"/>
+      <c r="D75" s="92"/>
+      <c r="E75" s="93"/>
+      <c r="F75" s="37">
         <v>6</v>
       </c>
-      <c r="G75" s="88" t="s">
+      <c r="G75" s="47" t="s">
         <v>134</v>
       </c>
       <c r="H75" s="23">
         <v>2019</v>
       </c>
-      <c r="I75" s="76"/>
-      <c r="J75" s="87"/>
+      <c r="I75" s="38"/>
+      <c r="J75" s="94"/>
     </row>
     <row r="76" spans="1:10" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A76" s="72"/>
-      <c r="B76" s="72"/>
-      <c r="C76" s="72"/>
-      <c r="D76" s="73"/>
-      <c r="E76" s="74"/>
-      <c r="F76" s="75">
+      <c r="A76" s="91"/>
+      <c r="B76" s="91"/>
+      <c r="C76" s="91"/>
+      <c r="D76" s="92"/>
+      <c r="E76" s="93"/>
+      <c r="F76" s="37">
         <v>7</v>
       </c>
-      <c r="G76" s="88" t="s">
+      <c r="G76" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="H76" s="88" t="s">
+      <c r="H76" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="I76" s="76"/>
-      <c r="J76" s="87"/>
+      <c r="I76" s="38"/>
+      <c r="J76" s="94"/>
     </row>
     <row r="77" spans="1:10" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A77" s="72"/>
-      <c r="B77" s="72"/>
-      <c r="C77" s="72"/>
-      <c r="D77" s="73"/>
-      <c r="E77" s="74"/>
-      <c r="F77" s="75">
+      <c r="A77" s="91"/>
+      <c r="B77" s="91"/>
+      <c r="C77" s="91"/>
+      <c r="D77" s="92"/>
+      <c r="E77" s="93"/>
+      <c r="F77" s="37">
         <v>8</v>
       </c>
-      <c r="G77" s="88" t="s">
+      <c r="G77" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="H77" s="88" t="s">
+      <c r="H77" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="I77" s="76"/>
-      <c r="J77" s="87"/>
+      <c r="I77" s="38"/>
+      <c r="J77" s="94"/>
     </row>
     <row r="78" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="72"/>
-      <c r="B78" s="72"/>
-      <c r="C78" s="72"/>
-      <c r="D78" s="73"/>
-      <c r="E78" s="74"/>
-      <c r="F78" s="75">
+      <c r="A78" s="91"/>
+      <c r="B78" s="91"/>
+      <c r="C78" s="91"/>
+      <c r="D78" s="92"/>
+      <c r="E78" s="93"/>
+      <c r="F78" s="37">
         <v>8</v>
       </c>
-      <c r="G78" s="88" t="s">
+      <c r="G78" s="47" t="s">
         <v>147</v>
       </c>
       <c r="H78" s="23"/>
-      <c r="I78" s="76" t="s">
+      <c r="I78" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="J78" s="87"/>
+      <c r="J78" s="94"/>
     </row>
     <row r="79" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="72">
+      <c r="A79" s="91">
         <v>11</v>
       </c>
-      <c r="B79" s="72"/>
-      <c r="C79" s="72" t="s">
+      <c r="B79" s="91"/>
+      <c r="C79" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="D79" s="73" t="s">
+      <c r="D79" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="E79" s="74" t="s">
+      <c r="E79" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="F79" s="75">
+      <c r="F79" s="37">
         <v>1</v>
       </c>
       <c r="G79" s="27" t="s">
         <v>112</v>
       </c>
       <c r="H79" s="23"/>
-      <c r="I79" s="76" t="s">
+      <c r="I79" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="J79" s="87" t="s">
+      <c r="J79" s="94" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:10" s="25" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A80" s="72"/>
-      <c r="B80" s="72"/>
-      <c r="C80" s="72"/>
-      <c r="D80" s="73"/>
-      <c r="E80" s="74"/>
-      <c r="F80" s="75">
+      <c r="A80" s="91"/>
+      <c r="B80" s="91"/>
+      <c r="C80" s="91"/>
+      <c r="D80" s="92"/>
+      <c r="E80" s="93"/>
+      <c r="F80" s="37">
         <v>2</v>
       </c>
       <c r="G80" s="27" t="s">
         <v>124</v>
       </c>
       <c r="H80" s="23"/>
-      <c r="I80" s="76" t="s">
+      <c r="I80" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="J80" s="87"/>
+      <c r="J80" s="94"/>
     </row>
     <row r="81" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="72"/>
-      <c r="B81" s="72"/>
-      <c r="C81" s="72"/>
-      <c r="D81" s="73"/>
-      <c r="E81" s="74"/>
-      <c r="F81" s="75">
+      <c r="A81" s="91"/>
+      <c r="B81" s="91"/>
+      <c r="C81" s="91"/>
+      <c r="D81" s="92"/>
+      <c r="E81" s="93"/>
+      <c r="F81" s="37">
         <v>3</v>
       </c>
-      <c r="G81" s="88" t="s">
+      <c r="G81" s="47" t="s">
         <v>127</v>
       </c>
       <c r="H81" s="23"/>
-      <c r="I81" s="88" t="s">
+      <c r="I81" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="J81" s="87"/>
+      <c r="J81" s="94"/>
     </row>
     <row r="82" spans="1:10" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A82" s="72"/>
-      <c r="B82" s="72"/>
-      <c r="C82" s="72"/>
-      <c r="D82" s="73"/>
-      <c r="E82" s="74"/>
-      <c r="F82" s="75">
+      <c r="A82" s="91"/>
+      <c r="B82" s="91"/>
+      <c r="C82" s="91"/>
+      <c r="D82" s="92"/>
+      <c r="E82" s="93"/>
+      <c r="F82" s="37">
         <v>4</v>
       </c>
-      <c r="G82" s="88" t="s">
+      <c r="G82" s="47" t="s">
         <v>132</v>
       </c>
       <c r="H82" s="23"/>
-      <c r="I82" s="92" t="s">
+      <c r="I82" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="J82" s="87"/>
+      <c r="J82" s="94"/>
     </row>
     <row r="83" spans="1:10" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="72"/>
-      <c r="B83" s="72"/>
-      <c r="C83" s="72"/>
-      <c r="D83" s="73"/>
-      <c r="E83" s="74"/>
-      <c r="F83" s="75">
+      <c r="A83" s="91"/>
+      <c r="B83" s="91"/>
+      <c r="C83" s="91"/>
+      <c r="D83" s="92"/>
+      <c r="E83" s="93"/>
+      <c r="F83" s="37">
         <v>5</v>
       </c>
-      <c r="G83" s="88" t="s">
+      <c r="G83" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="H83" s="93" t="s">
+      <c r="H83" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="I83" s="76"/>
-      <c r="J83" s="87"/>
+      <c r="I83" s="38"/>
+      <c r="J83" s="94"/>
     </row>
     <row r="84" spans="1:10" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="72"/>
-      <c r="B84" s="72"/>
-      <c r="C84" s="72"/>
-      <c r="D84" s="73"/>
-      <c r="E84" s="74"/>
-      <c r="F84" s="75">
+      <c r="A84" s="91"/>
+      <c r="B84" s="91"/>
+      <c r="C84" s="91"/>
+      <c r="D84" s="92"/>
+      <c r="E84" s="93"/>
+      <c r="F84" s="37">
         <v>6</v>
       </c>
-      <c r="G84" s="88" t="s">
+      <c r="G84" s="47" t="s">
         <v>134</v>
       </c>
       <c r="H84" s="23">
         <v>2019</v>
       </c>
-      <c r="I84" s="76"/>
-      <c r="J84" s="87"/>
+      <c r="I84" s="38"/>
+      <c r="J84" s="94"/>
     </row>
     <row r="85" spans="1:10" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="72"/>
-      <c r="B85" s="72"/>
-      <c r="C85" s="72"/>
-      <c r="D85" s="73"/>
-      <c r="E85" s="74"/>
-      <c r="F85" s="75">
+      <c r="A85" s="91"/>
+      <c r="B85" s="91"/>
+      <c r="C85" s="91"/>
+      <c r="D85" s="92"/>
+      <c r="E85" s="93"/>
+      <c r="F85" s="37">
         <v>7</v>
       </c>
-      <c r="G85" s="88" t="s">
+      <c r="G85" s="47" t="s">
         <v>136</v>
       </c>
       <c r="H85" s="23">
         <v>2</v>
       </c>
-      <c r="I85" s="76"/>
-      <c r="J85" s="87"/>
+      <c r="I85" s="38"/>
+      <c r="J85" s="94"/>
     </row>
     <row r="86" spans="1:10" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="72"/>
-      <c r="B86" s="72"/>
-      <c r="C86" s="72"/>
-      <c r="D86" s="73"/>
-      <c r="E86" s="74"/>
-      <c r="F86" s="75">
+      <c r="A86" s="91"/>
+      <c r="B86" s="91"/>
+      <c r="C86" s="91"/>
+      <c r="D86" s="92"/>
+      <c r="E86" s="93"/>
+      <c r="F86" s="37">
         <v>7</v>
       </c>
-      <c r="G86" s="88" t="s">
+      <c r="G86" s="47" t="s">
         <v>142</v>
       </c>
       <c r="H86" s="23">
         <v>2</v>
       </c>
-      <c r="I86" s="76"/>
-      <c r="J86" s="87"/>
+      <c r="I86" s="38"/>
+      <c r="J86" s="94"/>
     </row>
     <row r="87" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="72"/>
-      <c r="B87" s="72"/>
-      <c r="C87" s="72"/>
-      <c r="D87" s="73"/>
-      <c r="E87" s="74"/>
-      <c r="F87" s="75">
+      <c r="A87" s="91"/>
+      <c r="B87" s="91"/>
+      <c r="C87" s="91"/>
+      <c r="D87" s="92"/>
+      <c r="E87" s="93"/>
+      <c r="F87" s="37">
         <v>8</v>
       </c>
-      <c r="G87" s="88" t="s">
+      <c r="G87" s="47" t="s">
         <v>147</v>
       </c>
       <c r="H87" s="23"/>
-      <c r="I87" s="76" t="s">
+      <c r="I87" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="J87" s="87"/>
+      <c r="J87" s="94"/>
     </row>
     <row r="88" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="72">
+      <c r="A88" s="91">
         <v>12</v>
       </c>
-      <c r="B88" s="72" t="s">
+      <c r="B88" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="C88" s="72" t="s">
+      <c r="C88" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="D88" s="73" t="s">
+      <c r="D88" s="92" t="s">
         <v>146</v>
       </c>
-      <c r="E88" s="74" t="s">
+      <c r="E88" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="F88" s="75">
+      <c r="F88" s="37">
         <v>1</v>
       </c>
       <c r="G88" s="27" t="s">
         <v>112</v>
       </c>
       <c r="H88" s="23"/>
-      <c r="I88" s="94" t="s">
+      <c r="I88" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="J88" s="87" t="s">
+      <c r="J88" s="94" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="89" spans="1:10" s="25" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A89" s="72"/>
-      <c r="B89" s="72"/>
-      <c r="C89" s="72"/>
-      <c r="D89" s="73"/>
-      <c r="E89" s="74"/>
-      <c r="F89" s="75">
+      <c r="A89" s="91"/>
+      <c r="B89" s="91"/>
+      <c r="C89" s="91"/>
+      <c r="D89" s="92"/>
+      <c r="E89" s="93"/>
+      <c r="F89" s="37">
         <v>2</v>
       </c>
       <c r="G89" s="27" t="s">
         <v>124</v>
       </c>
       <c r="H89" s="23"/>
-      <c r="I89" s="76" t="s">
+      <c r="I89" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="J89" s="87"/>
+      <c r="J89" s="94"/>
     </row>
     <row r="90" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="72"/>
-      <c r="B90" s="72"/>
-      <c r="C90" s="72"/>
-      <c r="D90" s="73"/>
-      <c r="E90" s="74"/>
-      <c r="F90" s="75">
+      <c r="A90" s="91"/>
+      <c r="B90" s="91"/>
+      <c r="C90" s="91"/>
+      <c r="D90" s="92"/>
+      <c r="E90" s="93"/>
+      <c r="F90" s="37">
         <v>3</v>
       </c>
       <c r="G90" s="27" t="s">
         <v>126</v>
       </c>
       <c r="H90" s="23"/>
-      <c r="I90" s="76" t="s">
+      <c r="I90" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="J90" s="87"/>
+      <c r="J90" s="94"/>
     </row>
     <row r="91" spans="1:10" s="26" customFormat="1" ht="57" x14ac:dyDescent="0.25">
-      <c r="A91" s="72"/>
-      <c r="B91" s="72"/>
-      <c r="C91" s="72"/>
-      <c r="D91" s="73"/>
-      <c r="E91" s="74"/>
-      <c r="F91" s="75">
+      <c r="A91" s="91"/>
+      <c r="B91" s="91"/>
+      <c r="C91" s="91"/>
+      <c r="D91" s="92"/>
+      <c r="E91" s="93"/>
+      <c r="F91" s="37">
         <v>4</v>
       </c>
       <c r="G91" s="27" t="s">
         <v>128</v>
       </c>
       <c r="H91" s="23"/>
-      <c r="I91" s="76" t="s">
+      <c r="I91" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="J91" s="87"/>
+      <c r="J91" s="94"/>
     </row>
     <row r="92" spans="1:10" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A92" s="72"/>
-      <c r="B92" s="72"/>
-      <c r="C92" s="72"/>
-      <c r="D92" s="73"/>
-      <c r="E92" s="74"/>
-      <c r="F92" s="75">
+      <c r="A92" s="91"/>
+      <c r="B92" s="91"/>
+      <c r="C92" s="91"/>
+      <c r="D92" s="92"/>
+      <c r="E92" s="93"/>
+      <c r="F92" s="37">
         <v>5</v>
       </c>
-      <c r="G92" s="94" t="s">
+      <c r="G92" s="53" t="s">
         <v>153</v>
       </c>
       <c r="H92" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="I92" s="76"/>
-      <c r="J92" s="87"/>
+      <c r="I92" s="38"/>
+      <c r="J92" s="94"/>
     </row>
     <row r="93" spans="1:10" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A93" s="72"/>
-      <c r="B93" s="72"/>
-      <c r="C93" s="72"/>
-      <c r="D93" s="73"/>
-      <c r="E93" s="74"/>
-      <c r="F93" s="75">
+      <c r="A93" s="91"/>
+      <c r="B93" s="91"/>
+      <c r="C93" s="91"/>
+      <c r="D93" s="92"/>
+      <c r="E93" s="93"/>
+      <c r="F93" s="37">
         <v>6</v>
       </c>
-      <c r="G93" s="88" t="s">
+      <c r="G93" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="H93" s="78" t="s">
+      <c r="H93" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="I93" s="76"/>
-      <c r="J93" s="87"/>
+      <c r="I93" s="38"/>
+      <c r="J93" s="94"/>
     </row>
     <row r="94" spans="1:10" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A94" s="72"/>
-      <c r="B94" s="72"/>
-      <c r="C94" s="72"/>
-      <c r="D94" s="73"/>
-      <c r="E94" s="74"/>
-      <c r="F94" s="75">
+      <c r="A94" s="91"/>
+      <c r="B94" s="91"/>
+      <c r="C94" s="91"/>
+      <c r="D94" s="92"/>
+      <c r="E94" s="93"/>
+      <c r="F94" s="37">
         <v>7</v>
       </c>
-      <c r="G94" s="88" t="s">
+      <c r="G94" s="47" t="s">
         <v>136</v>
       </c>
       <c r="H94" s="23"/>
-      <c r="I94" s="94" t="s">
+      <c r="I94" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="J94" s="87"/>
+      <c r="J94" s="94"/>
     </row>
     <row r="95" spans="1:10" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A95" s="72"/>
-      <c r="B95" s="72"/>
-      <c r="C95" s="72"/>
-      <c r="D95" s="73"/>
-      <c r="E95" s="74"/>
-      <c r="F95" s="75">
+      <c r="A95" s="91"/>
+      <c r="B95" s="91"/>
+      <c r="C95" s="91"/>
+      <c r="D95" s="92"/>
+      <c r="E95" s="93"/>
+      <c r="F95" s="37">
         <v>8</v>
       </c>
-      <c r="G95" s="88" t="s">
+      <c r="G95" s="47" t="s">
         <v>142</v>
       </c>
       <c r="H95" s="23"/>
-      <c r="I95" s="94" t="s">
+      <c r="I95" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="J95" s="87"/>
+      <c r="J95" s="94"/>
     </row>
     <row r="96" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A96" s="72"/>
-      <c r="B96" s="72"/>
-      <c r="C96" s="72"/>
-      <c r="D96" s="73"/>
-      <c r="E96" s="74"/>
-      <c r="F96" s="75">
+      <c r="A96" s="91"/>
+      <c r="B96" s="91"/>
+      <c r="C96" s="91"/>
+      <c r="D96" s="92"/>
+      <c r="E96" s="93"/>
+      <c r="F96" s="37">
         <v>8</v>
       </c>
-      <c r="G96" s="88" t="s">
+      <c r="G96" s="47" t="s">
         <v>147</v>
       </c>
       <c r="H96" s="23"/>
-      <c r="I96" s="79" t="s">
+      <c r="I96" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="J96" s="87"/>
+      <c r="J96" s="94"/>
     </row>
     <row r="97" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="72">
+      <c r="A97" s="91">
         <v>13</v>
       </c>
-      <c r="B97" s="72"/>
-      <c r="C97" s="72" t="s">
+      <c r="B97" s="91"/>
+      <c r="C97" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="D97" s="73" t="s">
+      <c r="D97" s="92" t="s">
         <v>146</v>
       </c>
-      <c r="E97" s="74" t="s">
+      <c r="E97" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="F97" s="75">
+      <c r="F97" s="37">
         <v>1</v>
       </c>
       <c r="G97" s="27" t="s">
         <v>112</v>
       </c>
       <c r="H97" s="23"/>
-      <c r="I97" s="76" t="s">
+      <c r="I97" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="J97" s="87" t="s">
+      <c r="J97" s="94" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="98" spans="1:10" s="25" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A98" s="72"/>
-      <c r="B98" s="72"/>
-      <c r="C98" s="72"/>
-      <c r="D98" s="73"/>
-      <c r="E98" s="74"/>
-      <c r="F98" s="75">
+      <c r="A98" s="91"/>
+      <c r="B98" s="91"/>
+      <c r="C98" s="91"/>
+      <c r="D98" s="92"/>
+      <c r="E98" s="93"/>
+      <c r="F98" s="37">
         <v>2</v>
       </c>
       <c r="G98" s="27" t="s">
         <v>124</v>
       </c>
       <c r="H98" s="23"/>
-      <c r="I98" s="76" t="s">
+      <c r="I98" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="J98" s="87"/>
+      <c r="J98" s="94"/>
     </row>
     <row r="99" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="72"/>
-      <c r="B99" s="72"/>
-      <c r="C99" s="72"/>
-      <c r="D99" s="73"/>
-      <c r="E99" s="74"/>
-      <c r="F99" s="75">
+      <c r="A99" s="91"/>
+      <c r="B99" s="91"/>
+      <c r="C99" s="91"/>
+      <c r="D99" s="92"/>
+      <c r="E99" s="93"/>
+      <c r="F99" s="37">
         <v>3</v>
       </c>
       <c r="G99" s="27" t="s">
         <v>126</v>
       </c>
       <c r="H99" s="23"/>
-      <c r="I99" s="76" t="s">
+      <c r="I99" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="J99" s="87"/>
+      <c r="J99" s="94"/>
     </row>
     <row r="100" spans="1:10" s="26" customFormat="1" ht="57" x14ac:dyDescent="0.25">
-      <c r="A100" s="72"/>
-      <c r="B100" s="72"/>
-      <c r="C100" s="72"/>
-      <c r="D100" s="73"/>
-      <c r="E100" s="74"/>
-      <c r="F100" s="75">
+      <c r="A100" s="91"/>
+      <c r="B100" s="91"/>
+      <c r="C100" s="91"/>
+      <c r="D100" s="92"/>
+      <c r="E100" s="93"/>
+      <c r="F100" s="37">
         <v>4</v>
       </c>
       <c r="G100" s="27" t="s">
         <v>129</v>
       </c>
       <c r="H100" s="23"/>
-      <c r="I100" s="76" t="s">
+      <c r="I100" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="J100" s="87"/>
+      <c r="J100" s="94"/>
     </row>
     <row r="101" spans="1:10" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A101" s="72"/>
-      <c r="B101" s="72"/>
-      <c r="C101" s="72"/>
-      <c r="D101" s="73"/>
-      <c r="E101" s="74"/>
-      <c r="F101" s="75">
+      <c r="A101" s="91"/>
+      <c r="B101" s="91"/>
+      <c r="C101" s="91"/>
+      <c r="D101" s="92"/>
+      <c r="E101" s="93"/>
+      <c r="F101" s="37">
         <v>5</v>
       </c>
-      <c r="G101" s="94" t="s">
+      <c r="G101" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="H101" s="94" t="s">
+      <c r="H101" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="I101" s="76"/>
-      <c r="J101" s="87"/>
+      <c r="I101" s="38"/>
+      <c r="J101" s="94"/>
     </row>
     <row r="102" spans="1:10" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A102" s="72"/>
-      <c r="B102" s="72"/>
-      <c r="C102" s="72"/>
-      <c r="D102" s="73"/>
-      <c r="E102" s="74"/>
-      <c r="F102" s="75">
+      <c r="A102" s="91"/>
+      <c r="B102" s="91"/>
+      <c r="C102" s="91"/>
+      <c r="D102" s="92"/>
+      <c r="E102" s="93"/>
+      <c r="F102" s="37">
         <v>6</v>
       </c>
-      <c r="G102" s="88" t="s">
+      <c r="G102" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="H102" s="95" t="s">
+      <c r="H102" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="I102" s="76"/>
-      <c r="J102" s="87"/>
+      <c r="I102" s="38"/>
+      <c r="J102" s="94"/>
     </row>
     <row r="103" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="72"/>
-      <c r="B103" s="72"/>
-      <c r="C103" s="72"/>
-      <c r="D103" s="73"/>
-      <c r="E103" s="74"/>
-      <c r="F103" s="75">
+      <c r="A103" s="91"/>
+      <c r="B103" s="91"/>
+      <c r="C103" s="91"/>
+      <c r="D103" s="92"/>
+      <c r="E103" s="93"/>
+      <c r="F103" s="37">
         <v>7</v>
       </c>
-      <c r="G103" s="88" t="s">
+      <c r="G103" s="47" t="s">
         <v>136</v>
       </c>
       <c r="H103" s="23"/>
-      <c r="I103" s="76" t="s">
+      <c r="I103" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="J103" s="87"/>
+      <c r="J103" s="94"/>
     </row>
     <row r="104" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="72"/>
-      <c r="B104" s="72"/>
-      <c r="C104" s="72"/>
-      <c r="D104" s="73"/>
-      <c r="E104" s="74"/>
-      <c r="F104" s="75">
+      <c r="A104" s="91"/>
+      <c r="B104" s="91"/>
+      <c r="C104" s="91"/>
+      <c r="D104" s="92"/>
+      <c r="E104" s="93"/>
+      <c r="F104" s="37">
         <v>8</v>
       </c>
-      <c r="G104" s="88" t="s">
+      <c r="G104" s="47" t="s">
         <v>142</v>
       </c>
       <c r="H104" s="23"/>
-      <c r="I104" s="76" t="s">
+      <c r="I104" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="J104" s="87"/>
+      <c r="J104" s="94"/>
     </row>
     <row r="105" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="72"/>
-      <c r="B105" s="72"/>
-      <c r="C105" s="72"/>
-      <c r="D105" s="73"/>
-      <c r="E105" s="74"/>
-      <c r="F105" s="75">
+      <c r="A105" s="91"/>
+      <c r="B105" s="91"/>
+      <c r="C105" s="91"/>
+      <c r="D105" s="92"/>
+      <c r="E105" s="93"/>
+      <c r="F105" s="37">
         <v>8</v>
       </c>
-      <c r="G105" s="88" t="s">
+      <c r="G105" s="47" t="s">
         <v>147</v>
       </c>
       <c r="H105" s="23"/>
-      <c r="I105" s="76" t="s">
+      <c r="I105" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="J105" s="87"/>
+      <c r="J105" s="94"/>
     </row>
     <row r="106" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="72">
+      <c r="A106" s="91">
         <v>14</v>
       </c>
-      <c r="B106" s="72"/>
-      <c r="C106" s="72" t="s">
+      <c r="B106" s="91"/>
+      <c r="C106" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="D106" s="73" t="s">
+      <c r="D106" s="92" t="s">
         <v>141</v>
       </c>
-      <c r="E106" s="74" t="s">
+      <c r="E106" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="F106" s="75">
+      <c r="F106" s="37">
         <v>1</v>
       </c>
       <c r="G106" s="27" t="s">
         <v>112</v>
       </c>
       <c r="H106" s="23"/>
-      <c r="I106" s="76" t="s">
+      <c r="I106" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="J106" s="87" t="s">
+      <c r="J106" s="94" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="107" spans="1:10" s="25" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A107" s="72"/>
-      <c r="B107" s="72"/>
-      <c r="C107" s="72"/>
-      <c r="D107" s="73"/>
-      <c r="E107" s="74"/>
-      <c r="F107" s="75">
+      <c r="A107" s="91"/>
+      <c r="B107" s="91"/>
+      <c r="C107" s="91"/>
+      <c r="D107" s="92"/>
+      <c r="E107" s="93"/>
+      <c r="F107" s="37">
         <v>2</v>
       </c>
       <c r="G107" s="27" t="s">
         <v>124</v>
       </c>
       <c r="H107" s="23"/>
-      <c r="I107" s="76" t="s">
+      <c r="I107" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="J107" s="87"/>
+      <c r="J107" s="94"/>
     </row>
     <row r="108" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="72"/>
-      <c r="B108" s="72"/>
-      <c r="C108" s="72"/>
-      <c r="D108" s="73"/>
-      <c r="E108" s="74"/>
-      <c r="F108" s="75">
+      <c r="A108" s="91"/>
+      <c r="B108" s="91"/>
+      <c r="C108" s="91"/>
+      <c r="D108" s="92"/>
+      <c r="E108" s="93"/>
+      <c r="F108" s="37">
         <v>3</v>
       </c>
       <c r="G108" s="27" t="s">
         <v>126</v>
       </c>
       <c r="H108" s="23"/>
-      <c r="I108" s="76" t="s">
+      <c r="I108" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="J108" s="87"/>
+      <c r="J108" s="94"/>
     </row>
     <row r="109" spans="1:10" s="26" customFormat="1" ht="57" x14ac:dyDescent="0.25">
-      <c r="A109" s="72"/>
-      <c r="B109" s="72"/>
-      <c r="C109" s="72"/>
-      <c r="D109" s="73"/>
-      <c r="E109" s="74"/>
-      <c r="F109" s="75">
+      <c r="A109" s="91"/>
+      <c r="B109" s="91"/>
+      <c r="C109" s="91"/>
+      <c r="D109" s="92"/>
+      <c r="E109" s="93"/>
+      <c r="F109" s="37">
         <v>4</v>
       </c>
       <c r="G109" s="27" t="s">
         <v>131</v>
       </c>
       <c r="H109" s="23"/>
-      <c r="I109" s="76" t="s">
+      <c r="I109" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="J109" s="87"/>
+      <c r="J109" s="94"/>
     </row>
     <row r="110" spans="1:10" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A110" s="72"/>
-      <c r="B110" s="72"/>
-      <c r="C110" s="72"/>
-      <c r="D110" s="73"/>
-      <c r="E110" s="74"/>
-      <c r="F110" s="75">
+      <c r="A110" s="91"/>
+      <c r="B110" s="91"/>
+      <c r="C110" s="91"/>
+      <c r="D110" s="92"/>
+      <c r="E110" s="93"/>
+      <c r="F110" s="37">
         <v>5</v>
       </c>
-      <c r="G110" s="94" t="s">
+      <c r="G110" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="H110" s="94" t="s">
+      <c r="H110" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="I110" s="76"/>
-      <c r="J110" s="87"/>
+      <c r="I110" s="38"/>
+      <c r="J110" s="94"/>
     </row>
     <row r="111" spans="1:10" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A111" s="72"/>
-      <c r="B111" s="72"/>
-      <c r="C111" s="72"/>
-      <c r="D111" s="73"/>
-      <c r="E111" s="74"/>
-      <c r="F111" s="75">
+      <c r="A111" s="91"/>
+      <c r="B111" s="91"/>
+      <c r="C111" s="91"/>
+      <c r="D111" s="92"/>
+      <c r="E111" s="93"/>
+      <c r="F111" s="37">
         <v>6</v>
       </c>
-      <c r="G111" s="88" t="s">
+      <c r="G111" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="H111" s="95" t="s">
+      <c r="H111" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="I111" s="76"/>
-      <c r="J111" s="87"/>
+      <c r="I111" s="38"/>
+      <c r="J111" s="94"/>
     </row>
     <row r="112" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A112" s="72"/>
-      <c r="B112" s="72"/>
-      <c r="C112" s="72"/>
-      <c r="D112" s="73"/>
-      <c r="E112" s="74"/>
-      <c r="F112" s="75">
+      <c r="A112" s="91"/>
+      <c r="B112" s="91"/>
+      <c r="C112" s="91"/>
+      <c r="D112" s="92"/>
+      <c r="E112" s="93"/>
+      <c r="F112" s="37">
         <v>7</v>
       </c>
-      <c r="G112" s="88" t="s">
+      <c r="G112" s="47" t="s">
         <v>136</v>
       </c>
       <c r="H112" s="23"/>
-      <c r="I112" s="76" t="s">
+      <c r="I112" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="J112" s="87"/>
+      <c r="J112" s="94"/>
     </row>
     <row r="113" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A113" s="72"/>
-      <c r="B113" s="72"/>
-      <c r="C113" s="72"/>
-      <c r="D113" s="73"/>
-      <c r="E113" s="74"/>
-      <c r="F113" s="75">
+      <c r="A113" s="91"/>
+      <c r="B113" s="91"/>
+      <c r="C113" s="91"/>
+      <c r="D113" s="92"/>
+      <c r="E113" s="93"/>
+      <c r="F113" s="37">
         <v>7</v>
       </c>
-      <c r="G113" s="88" t="s">
+      <c r="G113" s="47" t="s">
         <v>142</v>
       </c>
       <c r="H113" s="23"/>
-      <c r="I113" s="76" t="s">
+      <c r="I113" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="J113" s="87"/>
+      <c r="J113" s="94"/>
     </row>
     <row r="114" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A114" s="72"/>
-      <c r="B114" s="72"/>
-      <c r="C114" s="72"/>
-      <c r="D114" s="73"/>
-      <c r="E114" s="74"/>
-      <c r="F114" s="75">
+      <c r="A114" s="91"/>
+      <c r="B114" s="91"/>
+      <c r="C114" s="91"/>
+      <c r="D114" s="92"/>
+      <c r="E114" s="93"/>
+      <c r="F114" s="37">
         <v>8</v>
       </c>
-      <c r="G114" s="88" t="s">
+      <c r="G114" s="47" t="s">
         <v>147</v>
       </c>
       <c r="H114" s="23"/>
-      <c r="I114" s="76" t="s">
+      <c r="I114" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="J114" s="87"/>
+      <c r="J114" s="94"/>
     </row>
     <row r="115" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A115" s="80" t="s">
+      <c r="A115" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="B115" s="80"/>
-      <c r="C115" s="80"/>
-      <c r="D115" s="80"/>
-      <c r="E115" s="80"/>
-      <c r="F115" s="80"/>
-      <c r="G115" s="80"/>
-      <c r="H115" s="80"/>
-      <c r="I115" s="80"/>
-      <c r="J115" s="96"/>
+      <c r="B115" s="95"/>
+      <c r="C115" s="95"/>
+      <c r="D115" s="95"/>
+      <c r="E115" s="95"/>
+      <c r="F115" s="95"/>
+      <c r="G115" s="95"/>
+      <c r="H115" s="95"/>
+      <c r="I115" s="95"/>
+      <c r="J115" s="55"/>
     </row>
     <row r="116" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="72">
+      <c r="A116" s="91">
         <v>15</v>
       </c>
-      <c r="B116" s="72" t="s">
+      <c r="B116" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="C116" s="72" t="s">
+      <c r="C116" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="D116" s="73" t="s">
+      <c r="D116" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="E116" s="74" t="s">
+      <c r="E116" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="F116" s="75">
+      <c r="F116" s="37">
         <v>1</v>
       </c>
       <c r="G116" s="27" t="s">
         <v>112</v>
       </c>
       <c r="H116" s="23"/>
-      <c r="I116" s="76" t="s">
+      <c r="I116" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="J116" s="87" t="s">
+      <c r="J116" s="94" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="117" spans="1:10" s="25" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A117" s="72"/>
-      <c r="B117" s="72"/>
-      <c r="C117" s="72"/>
-      <c r="D117" s="73"/>
-      <c r="E117" s="74"/>
-      <c r="F117" s="75">
+      <c r="A117" s="91"/>
+      <c r="B117" s="91"/>
+      <c r="C117" s="91"/>
+      <c r="D117" s="92"/>
+      <c r="E117" s="93"/>
+      <c r="F117" s="37">
         <v>2</v>
       </c>
       <c r="G117" s="27" t="s">
         <v>124</v>
       </c>
       <c r="H117" s="23"/>
-      <c r="I117" s="76" t="s">
+      <c r="I117" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="J117" s="87"/>
+      <c r="J117" s="94"/>
     </row>
     <row r="118" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="72"/>
-      <c r="B118" s="72"/>
-      <c r="C118" s="72"/>
-      <c r="D118" s="73"/>
-      <c r="E118" s="74"/>
-      <c r="F118" s="75">
+      <c r="A118" s="91"/>
+      <c r="B118" s="91"/>
+      <c r="C118" s="91"/>
+      <c r="D118" s="92"/>
+      <c r="E118" s="93"/>
+      <c r="F118" s="37">
         <v>3</v>
       </c>
       <c r="G118" s="27" t="s">
         <v>119</v>
       </c>
       <c r="H118" s="23"/>
-      <c r="I118" s="76"/>
-      <c r="J118" s="87"/>
+      <c r="I118" s="38"/>
+      <c r="J118" s="94"/>
     </row>
     <row r="119" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="72"/>
-      <c r="B119" s="72"/>
-      <c r="C119" s="72"/>
-      <c r="D119" s="73"/>
-      <c r="E119" s="74"/>
-      <c r="F119" s="75">
+      <c r="A119" s="91"/>
+      <c r="B119" s="91"/>
+      <c r="C119" s="91"/>
+      <c r="D119" s="92"/>
+      <c r="E119" s="93"/>
+      <c r="F119" s="37">
         <v>4</v>
       </c>
       <c r="G119" s="27" t="s">
         <v>120</v>
       </c>
       <c r="H119" s="23"/>
-      <c r="I119" s="81" t="s">
+      <c r="I119" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="J119" s="87"/>
+      <c r="J119" s="94"/>
     </row>
     <row r="120" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="72">
+      <c r="A120" s="91">
         <v>16</v>
       </c>
-      <c r="B120" s="72" t="s">
+      <c r="B120" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="C120" s="72" t="s">
+      <c r="C120" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="D120" s="73" t="s">
+      <c r="D120" s="92" t="s">
         <v>145</v>
       </c>
-      <c r="E120" s="74" t="s">
+      <c r="E120" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="F120" s="75">
+      <c r="F120" s="37">
         <v>1</v>
       </c>
       <c r="G120" s="27" t="s">
         <v>112</v>
       </c>
       <c r="H120" s="23"/>
-      <c r="I120" s="76" t="s">
+      <c r="I120" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="J120" s="87"/>
+      <c r="J120" s="94"/>
     </row>
     <row r="121" spans="1:10" s="25" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A121" s="72"/>
-      <c r="B121" s="72"/>
-      <c r="C121" s="72"/>
-      <c r="D121" s="73"/>
-      <c r="E121" s="74"/>
-      <c r="F121" s="75">
+      <c r="A121" s="91"/>
+      <c r="B121" s="91"/>
+      <c r="C121" s="91"/>
+      <c r="D121" s="92"/>
+      <c r="E121" s="93"/>
+      <c r="F121" s="37">
         <v>2</v>
       </c>
       <c r="G121" s="27" t="s">
         <v>124</v>
       </c>
       <c r="H121" s="23"/>
-      <c r="I121" s="76" t="s">
+      <c r="I121" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="J121" s="87"/>
+      <c r="J121" s="94"/>
     </row>
     <row r="122" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="72"/>
-      <c r="B122" s="72"/>
-      <c r="C122" s="72"/>
-      <c r="D122" s="73"/>
-      <c r="E122" s="74"/>
-      <c r="F122" s="75">
+      <c r="A122" s="91"/>
+      <c r="B122" s="91"/>
+      <c r="C122" s="91"/>
+      <c r="D122" s="92"/>
+      <c r="E122" s="93"/>
+      <c r="F122" s="37">
         <v>3</v>
       </c>
       <c r="G122" s="27" t="s">
         <v>119</v>
       </c>
       <c r="H122" s="23"/>
-      <c r="I122" s="76"/>
-      <c r="J122" s="87"/>
+      <c r="I122" s="38"/>
+      <c r="J122" s="94"/>
     </row>
     <row r="123" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="72"/>
-      <c r="B123" s="72"/>
-      <c r="C123" s="72"/>
-      <c r="D123" s="73"/>
-      <c r="E123" s="74"/>
-      <c r="F123" s="75">
+      <c r="A123" s="91"/>
+      <c r="B123" s="91"/>
+      <c r="C123" s="91"/>
+      <c r="D123" s="92"/>
+      <c r="E123" s="93"/>
+      <c r="F123" s="37">
         <v>4</v>
       </c>
       <c r="G123" s="27" t="s">
         <v>120</v>
       </c>
       <c r="H123" s="23"/>
-      <c r="I123" s="81" t="s">
+      <c r="I123" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="J123" s="87"/>
+      <c r="J123" s="94"/>
     </row>
     <row r="124" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="72">
+      <c r="A124" s="91">
         <v>17</v>
       </c>
-      <c r="B124" s="72" t="s">
+      <c r="B124" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="C124" s="72" t="s">
+      <c r="C124" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="D124" s="73" t="s">
+      <c r="D124" s="92" t="s">
         <v>148</v>
       </c>
-      <c r="E124" s="74" t="s">
+      <c r="E124" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="F124" s="75">
+      <c r="F124" s="37">
         <v>1</v>
       </c>
       <c r="G124" s="27" t="s">
         <v>112</v>
       </c>
       <c r="H124" s="23"/>
-      <c r="I124" s="76" t="s">
+      <c r="I124" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="J124" s="87" t="s">
+      <c r="J124" s="94" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="125" spans="1:10" s="25" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A125" s="72"/>
-      <c r="B125" s="72"/>
-      <c r="C125" s="72"/>
-      <c r="D125" s="73"/>
-      <c r="E125" s="74"/>
-      <c r="F125" s="75">
+      <c r="A125" s="91"/>
+      <c r="B125" s="91"/>
+      <c r="C125" s="91"/>
+      <c r="D125" s="92"/>
+      <c r="E125" s="93"/>
+      <c r="F125" s="37">
         <v>2</v>
       </c>
       <c r="G125" s="27" t="s">
         <v>124</v>
       </c>
       <c r="H125" s="23"/>
-      <c r="I125" s="76" t="s">
+      <c r="I125" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="J125" s="87"/>
+      <c r="J125" s="94"/>
     </row>
     <row r="126" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="72"/>
-      <c r="B126" s="72"/>
-      <c r="C126" s="72"/>
-      <c r="D126" s="73"/>
-      <c r="E126" s="74"/>
-      <c r="F126" s="75">
+      <c r="A126" s="91"/>
+      <c r="B126" s="91"/>
+      <c r="C126" s="91"/>
+      <c r="D126" s="92"/>
+      <c r="E126" s="93"/>
+      <c r="F126" s="37">
         <v>3</v>
       </c>
       <c r="G126" s="27" t="s">
         <v>119</v>
       </c>
       <c r="H126" s="23"/>
-      <c r="I126" s="76"/>
-      <c r="J126" s="87"/>
+      <c r="I126" s="38"/>
+      <c r="J126" s="94"/>
     </row>
     <row r="127" spans="1:10" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="72"/>
-      <c r="B127" s="72"/>
-      <c r="C127" s="72"/>
-      <c r="D127" s="73"/>
-      <c r="E127" s="74"/>
-      <c r="F127" s="75">
+      <c r="A127" s="91"/>
+      <c r="B127" s="91"/>
+      <c r="C127" s="91"/>
+      <c r="D127" s="92"/>
+      <c r="E127" s="93"/>
+      <c r="F127" s="37">
         <v>4</v>
       </c>
       <c r="G127" s="27" t="s">
         <v>120</v>
       </c>
       <c r="H127" s="23"/>
-      <c r="I127" s="81" t="s">
+      <c r="I127" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="J127" s="87"/>
+      <c r="J127" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="B124:B127"/>
-    <mergeCell ref="A124:A127"/>
-    <mergeCell ref="C124:C127"/>
-    <mergeCell ref="D124:D127"/>
-    <mergeCell ref="A120:A123"/>
-    <mergeCell ref="B120:B123"/>
-    <mergeCell ref="C120:C123"/>
-    <mergeCell ref="D120:D123"/>
-    <mergeCell ref="A88:A96"/>
-    <mergeCell ref="B88:B114"/>
-    <mergeCell ref="C88:C96"/>
-    <mergeCell ref="D88:D96"/>
-    <mergeCell ref="E88:E96"/>
-    <mergeCell ref="A97:A105"/>
-    <mergeCell ref="C97:C105"/>
-    <mergeCell ref="D97:D105"/>
-    <mergeCell ref="E97:E105"/>
-    <mergeCell ref="A106:A114"/>
-    <mergeCell ref="D106:D114"/>
-    <mergeCell ref="A25:A33"/>
-    <mergeCell ref="C25:C33"/>
-    <mergeCell ref="D25:D33"/>
-    <mergeCell ref="E25:E33"/>
-    <mergeCell ref="B16:B42"/>
-    <mergeCell ref="C34:C42"/>
-    <mergeCell ref="D34:D42"/>
-    <mergeCell ref="E34:E42"/>
-    <mergeCell ref="J34:J42"/>
-    <mergeCell ref="E120:E123"/>
-    <mergeCell ref="J8:J11"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="J116:J119"/>
-    <mergeCell ref="J16:J24"/>
-    <mergeCell ref="J43:J51"/>
-    <mergeCell ref="J52:J60"/>
-    <mergeCell ref="J61:J69"/>
-    <mergeCell ref="J70:J78"/>
-    <mergeCell ref="J25:J33"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="E106:E114"/>
-    <mergeCell ref="J106:J114"/>
-    <mergeCell ref="J97:J105"/>
+    <mergeCell ref="C79:C87"/>
+    <mergeCell ref="D79:D87"/>
+    <mergeCell ref="E79:E87"/>
+    <mergeCell ref="J79:J87"/>
+    <mergeCell ref="J88:J96"/>
+    <mergeCell ref="E124:E127"/>
+    <mergeCell ref="A43:A51"/>
+    <mergeCell ref="C43:C51"/>
+    <mergeCell ref="D43:D51"/>
+    <mergeCell ref="E43:E51"/>
+    <mergeCell ref="A52:A60"/>
+    <mergeCell ref="C52:C60"/>
+    <mergeCell ref="D52:D60"/>
+    <mergeCell ref="E52:E60"/>
+    <mergeCell ref="B43:B60"/>
+    <mergeCell ref="A61:A69"/>
+    <mergeCell ref="B61:B87"/>
+    <mergeCell ref="C61:C69"/>
+    <mergeCell ref="D61:D69"/>
+    <mergeCell ref="E61:E69"/>
+    <mergeCell ref="A70:A78"/>
+    <mergeCell ref="B4:B15"/>
+    <mergeCell ref="A116:A119"/>
+    <mergeCell ref="C116:C119"/>
+    <mergeCell ref="D116:D119"/>
+    <mergeCell ref="E116:E119"/>
+    <mergeCell ref="B116:B119"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="C16:C24"/>
+    <mergeCell ref="D16:D24"/>
+    <mergeCell ref="E16:E24"/>
+    <mergeCell ref="C70:C78"/>
+    <mergeCell ref="D70:D78"/>
+    <mergeCell ref="E70:E78"/>
+    <mergeCell ref="A79:A87"/>
+    <mergeCell ref="A34:A42"/>
+    <mergeCell ref="C106:C114"/>
     <mergeCell ref="J124:J127"/>
     <mergeCell ref="J120:J123"/>
     <mergeCell ref="A115:I115"/>
@@ -4737,43 +4799,48 @@
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="D8:D11"/>
     <mergeCell ref="J4:J7"/>
-    <mergeCell ref="B4:B15"/>
-    <mergeCell ref="A116:A119"/>
-    <mergeCell ref="C116:C119"/>
-    <mergeCell ref="D116:D119"/>
-    <mergeCell ref="E116:E119"/>
-    <mergeCell ref="B116:B119"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="C16:C24"/>
-    <mergeCell ref="D16:D24"/>
-    <mergeCell ref="E16:E24"/>
-    <mergeCell ref="C70:C78"/>
-    <mergeCell ref="D70:D78"/>
-    <mergeCell ref="E70:E78"/>
-    <mergeCell ref="A79:A87"/>
-    <mergeCell ref="A34:A42"/>
-    <mergeCell ref="C106:C114"/>
-    <mergeCell ref="E124:E127"/>
-    <mergeCell ref="A43:A51"/>
-    <mergeCell ref="C43:C51"/>
-    <mergeCell ref="D43:D51"/>
-    <mergeCell ref="E43:E51"/>
-    <mergeCell ref="A52:A60"/>
-    <mergeCell ref="C52:C60"/>
-    <mergeCell ref="D52:D60"/>
-    <mergeCell ref="E52:E60"/>
-    <mergeCell ref="B43:B60"/>
-    <mergeCell ref="A61:A69"/>
-    <mergeCell ref="B61:B87"/>
-    <mergeCell ref="C61:C69"/>
-    <mergeCell ref="D61:D69"/>
-    <mergeCell ref="E61:E69"/>
-    <mergeCell ref="A70:A78"/>
-    <mergeCell ref="C79:C87"/>
-    <mergeCell ref="D79:D87"/>
-    <mergeCell ref="E79:E87"/>
-    <mergeCell ref="J79:J87"/>
-    <mergeCell ref="J88:J96"/>
+    <mergeCell ref="J34:J42"/>
+    <mergeCell ref="E120:E123"/>
+    <mergeCell ref="J8:J11"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="J116:J119"/>
+    <mergeCell ref="J16:J24"/>
+    <mergeCell ref="J43:J51"/>
+    <mergeCell ref="J52:J60"/>
+    <mergeCell ref="J61:J69"/>
+    <mergeCell ref="J70:J78"/>
+    <mergeCell ref="J25:J33"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="E106:E114"/>
+    <mergeCell ref="J106:J114"/>
+    <mergeCell ref="J97:J105"/>
+    <mergeCell ref="A25:A33"/>
+    <mergeCell ref="C25:C33"/>
+    <mergeCell ref="D25:D33"/>
+    <mergeCell ref="E25:E33"/>
+    <mergeCell ref="B16:B42"/>
+    <mergeCell ref="C34:C42"/>
+    <mergeCell ref="D34:D42"/>
+    <mergeCell ref="E34:E42"/>
+    <mergeCell ref="A88:A96"/>
+    <mergeCell ref="B88:B114"/>
+    <mergeCell ref="C88:C96"/>
+    <mergeCell ref="D88:D96"/>
+    <mergeCell ref="E88:E96"/>
+    <mergeCell ref="A97:A105"/>
+    <mergeCell ref="C97:C105"/>
+    <mergeCell ref="D97:D105"/>
+    <mergeCell ref="E97:E105"/>
+    <mergeCell ref="A106:A114"/>
+    <mergeCell ref="D106:D114"/>
+    <mergeCell ref="B124:B127"/>
+    <mergeCell ref="A124:A127"/>
+    <mergeCell ref="C124:C127"/>
+    <mergeCell ref="D124:D127"/>
+    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="B120:B123"/>
+    <mergeCell ref="C120:C123"/>
+    <mergeCell ref="D120:D123"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
